--- a/medicine/Soins infirmiers et profession infirmière/1860_en_santé_et_médecine/1860_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1860_en_santé_et_médecine/1860_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1860_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1860_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1860 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1860_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1860_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 janvier : le pathologiste allemand Friedrich Albert von Zenker, en pratiquant l'autopsie d'une jeune fille décédée à l’hôpital de Dresde, démontre que les infections par trichines (trichinose), considérées jusque-là comme bénignes, sont mortelles chez l'homme. Il publie ses résultats dans un article intitulé Ueber die Trichinenkrankheit des Menschen (« De l'affection trichinale chez l'homme »)[1].
-26 mars : le physiologiste Jules Marey présente à l'Académie des sciences un sphygmographe, instrument utilisé pour mesurer le pouls au niveau de la carotide, plus léger et portatif que celui de Karl von Vierordt[2].
-16 mai : en Norvège, promulgation la loi de santé publique dite « Loi sur les conseils de santé publique et sur les mesures relatives aux maladies épidémiques et contagieuses »  qui a duré jusqu’aux années 1980[3].
-9 juillet : l'infirmière britannique Florence Nightingale (1820-1910) ouvre une école d'infirmière, la Florence Nightingale Faculty of Nursing and Midwifery (en) au St Thomas' Hospital de Londres[4],[5].
-Famine en Inde (1860-1861)[6].
-Découverte du métal de Wood par le dentiste américain Barnabas Wood (1819-1875)[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 janvier : le pathologiste allemand Friedrich Albert von Zenker, en pratiquant l'autopsie d'une jeune fille décédée à l’hôpital de Dresde, démontre que les infections par trichines (trichinose), considérées jusque-là comme bénignes, sont mortelles chez l'homme. Il publie ses résultats dans un article intitulé Ueber die Trichinenkrankheit des Menschen (« De l'affection trichinale chez l'homme »).
+26 mars : le physiologiste Jules Marey présente à l'Académie des sciences un sphygmographe, instrument utilisé pour mesurer le pouls au niveau de la carotide, plus léger et portatif que celui de Karl von Vierordt.
+16 mai : en Norvège, promulgation la loi de santé publique dite « Loi sur les conseils de santé publique et sur les mesures relatives aux maladies épidémiques et contagieuses »  qui a duré jusqu’aux années 1980.
+9 juillet : l'infirmière britannique Florence Nightingale (1820-1910) ouvre une école d'infirmière, la Florence Nightingale Faculty of Nursing and Midwifery (en) au St Thomas' Hospital de Londres,.
+Famine en Inde (1860-1861).
+Découverte du métal de Wood par le dentiste américain Barnabas Wood (1819-1875).</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1860_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1860_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society
 Médaille royale : Augustus Waller</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1860_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1860_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>25 mai : James McKeen Cattell (mort en 1944), premier professeur en psychologie des États-Unis.
 4 juin : Georges Henri Roger (mort en 1946), médecin français.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1860_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1860_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>20 juin : Thomas Addison (né en 1793), médecin et scientifique anglais.
 9 juillet : mort de Phineas Gage (né en 1823), contremaître des chemins de fer américains, qui a survécu à des dommages au lobe frontal gauche de son cerveau à la suite d'un traumatisme crânien majeur le 13 septembre 1848.</t>
